--- a/data/CARBURANT/2024/RAPPORT-04-2024.xlsx
+++ b/data/CARBURANT/2024/RAPPORT-04-2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Documents/SOLUTIONDEV/projet_data/streamlit_test/data/CARBURANT/2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABDABED2-380C-E647-8E4E-05737D52C551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7148D85-B515-5746-A115-39A66F33B5A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="800" windowWidth="21380" windowHeight="15480" xr2:uid="{14694630-C95D-074E-89CF-4B6F1BD72D95}"/>
+    <workbookView xWindow="3000" yWindow="800" windowWidth="20660" windowHeight="15480" xr2:uid="{14694630-C95D-074E-89CF-4B6F1BD72D95}"/>
   </bookViews>
   <sheets>
     <sheet name="detail" sheetId="1" r:id="rId1"/>
@@ -2741,21 +2741,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{139B9277-A2BE-194A-9F50-C3EFE126BFBD}">
   <dimension ref="A1:J638"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A626" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B638"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" customWidth="1"/>
-    <col min="3" max="3" width="16.1640625" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" style="76" customWidth="1"/>
+    <col min="1" max="1" width="6.5" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" style="76" customWidth="1"/>
     <col min="5" max="5" width="13.1640625" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
     <col min="7" max="7" width="14.83203125" customWidth="1"/>
     <col min="8" max="8" width="16.1640625" customWidth="1"/>
     <col min="9" max="9" width="22.6640625" customWidth="1"/>
     <col min="10" max="10" width="16.33203125" customWidth="1"/>
+    <col min="11" max="11" width="5.33203125" customWidth="1"/>
+    <col min="12" max="12" width="5.83203125" customWidth="1"/>
+    <col min="13" max="13" width="5" customWidth="1"/>
+    <col min="14" max="14" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="39" customHeight="1">
@@ -23175,7 +23180,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:E2 I2:J638 C4 E4 C5:E8 C9:C10 E9:E10 C11:E11 C12:C13 E12:E13 C14:E14 C15 E15 C16:E17 C18:C21 E18:E21 C22:E22 C23 E23 C24:E25 C26:C28 E26:E28 C29:E32 C33:C34 E33:E34 C35:E35 C36:C37 E36:E37 C38:E38 C39 E39 C40:E40 C41:C42 E41:E42 C43:E46 C47 E47 C48:E50 C51 E51 C52:E55 C56:C60 E56:E60 C61:E61 C62:C63 E62:E63 C64:E64 C65 E65 C66:E66 C67 E67 C68:E69 C70 E70 C71:E71 C72 E72 C73:E75 C76 E76 C77:E77 C78 E78 C79:E81 C82:C87 E82:E87 C88:E88 C89:C90 E89:E90 C91:E92 C93 E93 C94:E96 C97:C98 E97:E98 C99:E99 C100:C101 E100:E101 C102:E102 C103:C104 E103:E104 C105:E111 C112:C114 E112:E114 C115:E116 C117 E117 C118:E122 C123 E123 C124:E124 C125:C126 E125:E126 C127:E128 C129:C131 E129:E131 C132:E132 C133:C134 E133:E134 C135:E140 C141 E141 C142:E143 C144:C147 E144:E147 C148:E148 C149:C152 E149:E152 C153:E158 C159 E159 C160:E163 C164 E164 C165:E165 C166:C167 E166:E167 C168:E168 C169:C171 E169:E171 C172:E172 C173:C174 E173:E174 C175:E176 C177:C178 E177:E178 C179:E181 C182 E182 C183:E185 C186:C187 E186:E187 C188:E188 C189:C191 E189:E191 C192:E192 C193:C195 E193:E195 C196:E196 C197:C200 E197:E200 C201:E205 C206:C207 E206:E207 C208:E208 C209:C213 E209:E213 C214:E214 C215 E215 C216:E217 C218:C219 E218:E219 C220:E220 C221 E221 C222:E223 C224 E224 C225:E226 C227 E227 C228:E229 C230 E230 C231:E233 C234 E234 C235:E236 C237:C239 E237:E239 C240:E241 C242 E242 C243:E243 C244:C246 E244:E246 C247:E250 C251 E251 C252:E254 C255:C259 E255:E259 C260:E262 C263 E263 C264:E266 C267:C269 E267:E269 C270:E273 C274:C276 E274:E276 C277:E279 C280:C281 E280:E281 C282:E282 C283:C284 E283:E284 C285:E285 C286:C288 E286:E288 C289:E289 C290:C293 E290:E293 C294:E295 C296:C297 E296:E297 C298:E300 C301:C305 E301:E305 C306:E306 C307 E307 C308:E308 C309:C313 E309:E313 C314:E314 C315 E315 C316:E316 C317:C318 E317:E318 C319:E321 C322:C323 E322:E323 C324:E324 C325 E325 C326:E326 C327 E327 C328:E329 C330:C337 E330:E337 C338:E338 C339:C341 E339:E341 C342:E342 C343 E343 C344:E346 C347:C354 E347:E354 C355:E356 C357 E357 C358:E359 C360:C361 E360:E361 C362:E362 C363:C364 E363:E364 C365:E367 C368 E368 C369:E372 C373:C377 E373:E377 C378:E380 C381:C382 E381:E382 C383:E384 C385 E385 C386:E386 C387:C389 E387:E389 C390:E391 C392:C393 E392:E393 C394:E394 C395:C399 E395:E399 C400:E402 C403 E403 C404:E404 C405:C407 E405:E407 C408:E410 C411 E411 C412:E412 C413 E413 C414:E415 C416:C417 E416:E417 C418:E419 C420 E420 C421:E422 C423:C425 E423:E425 C426:E428 C429:C430 E429:E430 C431:E437 C438:C444 E438:E444 C445:E445 C446 E446 C447:E448 C449:C450 E449:E450 C451:E452 C453:C455 E453:E455 C456:E458 C459:C462 E459:E462 C463:E464 C465:C467 E465:E467 C468:E468 C469:C473 E469:E473 C474:E480 C481:C487 E481:E487 C488:E488 C489 E489 C490:E490 C491 E491 C492:E497 C498:C500 E498:E500 C501:E502 C503:C505 E503:E505 C506:E506 C507 E507 C508:E510 C511 E511 C512:E512 C513 E513 C514:E514 C515:C516 E515:E516 C517:E517 C518 E518 C519:E522 C523:C525 E523:E525 C526:E528 C529:C531 E529:E531 C532:E532 C533:C534 E533:E534 C535:E536 C537:C540 E537:E540 C541:E544 C545:C546 E545:E546 C547:E547 C548:C553 E548:E553 C554:E554 C555 E555 C556:E557 C558 E558 C559:E560 C561:C562 E561:E562 C563:E564 C565 E565 C566:E569 C570 E570 C571:E571 C572:C575 E572:E575 C576:E576 C577:C578 E577:E578 C579:E581 C582 E582 C583:E586 C587:C588 E587:E588 C589:E590 C591:C594 E591:E594 C595:E596 C597:C599 E597:E599 C600:E600 C601:C604 E601:E604 C605:E605 C606 E606 C607:E607 C608 E608 C609:E609 C610:C611 E610:E611 C612:E614 C615:C616 E615:E616 C617:E620 C621 E621 C622:E623 C624 E624 C625:E628 C629:C634 E629:E634 C635:E636 C637:C638 E637:E638 C3:E3 B3:B638">
+  <conditionalFormatting sqref="B2:E2 I2:J638 C3:E3 B3:B638 C4 E4 C5:E8 C9:C10 E9:E10 C11:E11 C12:C13 E12:E13 C14:E14 C15 E15 C16:E17 C18:C21 E18:E21 C22:E22 C23 E23 C24:E25 C26:C28 E26:E28 C29:E32 C33:C34 E33:E34 C35:E35 C36:C37 E36:E37 C38:E38 C39 E39 C40:E40 C41:C42 E41:E42 C43:E46 C47 E47 C48:E50 C51 E51 C52:E55 C56:C60 E56:E60 C61:E61 C62:C63 E62:E63 C64:E64 C65 E65 C66:E66 C67 E67 C68:E69 C70 E70 C71:E71 C72 E72 C73:E75 C76 E76 C77:E77 C78 E78 C79:E81 C82:C87 E82:E87 C88:E88 C89:C90 E89:E90 C91:E92 C93 E93 C94:E96 C97:C98 E97:E98 C99:E99 C100:C101 E100:E101 C102:E102 C103:C104 E103:E104 C105:E111 C112:C114 E112:E114 C115:E116 C117 E117 C118:E122 C123 E123 C124:E124 C125:C126 E125:E126 C127:E128 C129:C131 E129:E131 C132:E132 C133:C134 E133:E134 C135:E140 C141 E141 C142:E143 C144:C147 E144:E147 C148:E148 C149:C152 E149:E152 C153:E158 C159 E159 C160:E163 C164 E164 C165:E165 C166:C167 E166:E167 C168:E168 C169:C171 E169:E171 C172:E172 C173:C174 E173:E174 C175:E176 C177:C178 E177:E178 C179:E181 C182 E182 C183:E185 C186:C187 E186:E187 C188:E188 C189:C191 E189:E191 C192:E192 C193:C195 E193:E195 C196:E196 C197:C200 E197:E200 C201:E205 C206:C207 E206:E207 C208:E208 C209:C213 E209:E213 C214:E214 C215 E215 C216:E217 C218:C219 E218:E219 C220:E220 C221 E221 C222:E223 C224 E224 C225:E226 C227 E227 C228:E229 C230 E230 C231:E233 C234 E234 C235:E236 C237:C239 E237:E239 C240:E241 C242 E242 C243:E243 C244:C246 E244:E246 C247:E250 C251 E251 C252:E254 C255:C259 E255:E259 C260:E262 C263 E263 C264:E266 C267:C269 E267:E269 C270:E273 C274:C276 E274:E276 C277:E279 C280:C281 E280:E281 C282:E282 C283:C284 E283:E284 C285:E285 C286:C288 E286:E288 C289:E289 C290:C293 E290:E293 C294:E295 C296:C297 E296:E297 C298:E300 C301:C305 E301:E305 C306:E306 C307 E307 C308:E308 C309:C313 E309:E313 C314:E314 C315 E315 C316:E316 C317:C318 E317:E318 C319:E321 C322:C323 E322:E323 C324:E324 C325 E325 C326:E326 C327 E327 C328:E329 C330:C337 E330:E337 C338:E338 C339:C341 E339:E341 C342:E342 C343 E343 C344:E346 C347:C354 E347:E354 C355:E356 C357 E357 C358:E359 C360:C361 E360:E361 C362:E362 C363:C364 E363:E364 C365:E367 C368 E368 C369:E372 C373:C377 E373:E377 C378:E380 C381:C382 E381:E382 C383:E384 C385 E385 C386:E386 C387:C389 E387:E389 C390:E391 C392:C393 E392:E393 C394:E394 C395:C399 E395:E399 C400:E402 C403 E403 C404:E404 C405:C407 E405:E407 C408:E410 C411 E411 C412:E412 C413 E413 C414:E415 C416:C417 E416:E417 C418:E419 C420 E420 C421:E422 C423:C425 E423:E425 C426:E428 C429:C430 E429:E430 C431:E437 C438:C444 E438:E444 C445:E445 C446 E446 C447:E448 C449:C450 E449:E450 C451:E452 C453:C455 E453:E455 C456:E458 C459:C462 E459:E462 C463:E464 C465:C467 E465:E467 C468:E468 C469:C473 E469:E473 C474:E480 C481:C487 E481:E487 C488:E488 C489 E489 C490:E490 C491 E491 C492:E497 C498:C500 E498:E500 C501:E502 C503:C505 E503:E505 C506:E506 C507 E507 C508:E510 C511 E511 C512:E512 C513 E513 C514:E514 C515:C516 E515:E516 C517:E517 C518 E518 C519:E522 C523:C525 E523:E525 C526:E528 C529:C531 E529:E531 C532:E532 C533:C534 E533:E534 C535:E536 C537:C540 E537:E540 C541:E544 C545:C546 E545:E546 C547:E547 C548:C553 E548:E553 C554:E554 C555 E555 C556:E557 C558 E558 C559:E560 C561:C562 E561:E562 C563:E564 C565 E565 C566:E569 C570 E570 C571:E571 C572:C575 E572:E575 C576:E576 C577:C578 E577:E578 C579:E581 C582 E582 C583:E586 C587:C588 E587:E588 C589:E590 C591:C594 E591:E594 C595:E596 C597:C599 E597:E599 C600:E600 C601:C604 E601:E604 C605:E605 C606 E606 C607:E607 C608 E608 C609:E609 C610:C611 E610:E611 C612:E614 C615:C616 E615:E616 C617:E620 C621 E621 C622:E623 C624 E624 C625:E628 C629:C634 E629:E634 C635:E636 C637:C638 E637:E638">
     <cfRule type="expression" dxfId="10" priority="29">
       <formula>$I2="RAJOUT"</formula>
     </cfRule>
